--- a/Dane 3.xlsx
+++ b/Dane 3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a258678afa0cae05/Documents/Documents 1/GitHub/AiSD_lab/3-graph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a258678afa0cae05/Documents/Documents 1/GitHub/AiSD_lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_F25DC773A252ABDACC104805799B403C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF61C7F5-C426-4F5C-B018-C183A3EA16A8}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="11_F25DC773A252ABDACC104805799B403C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EB62F10-22D2-40E1-8D58-12C14B0827F7}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,12 +100,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF080808"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -129,14 +137,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -808,11 +817,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Zależność czasu obliczania liczby łuków</a:t>
+              <a:t>Liczba łuków powrotnych w grafie w zależności od liczby wierzchołków i gęstości</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> powrotnych od liczby wierzchołków dla trzech reprezentacji grafu przy gęstości grafu d = 0,2</a:t>
+              <a:t> grafu</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -856,7 +865,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>lista łuków</c:v>
+            <c:v>gęstość 0,2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -922,39 +931,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wyniki!$C$5:$L$5</c:f>
+              <c:f>wyniki!$C$3:$L$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.05338096618651E-3</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.54023647308349E-2</c:v>
+                  <c:v>16472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1080274581909099E-2</c:v>
+                  <c:v>37274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4962911605834894E-2</c:v>
+                  <c:v>66419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5006513595581002E-2</c:v>
+                  <c:v>104206</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19171743392944299</c:v>
+                  <c:v>149298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25432448387145901</c:v>
+                  <c:v>203227</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36110167503356899</c:v>
+                  <c:v>265782</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50117354393005298</c:v>
+                  <c:v>336821</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.68638854026794405</c:v>
+                  <c:v>414857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,7 +971,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-66BA-4CC3-8836-4231F0E7AAC6}"/>
+              <c16:uniqueId val="{00000000-9002-438A-A2CB-14472A546976}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -970,7 +979,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>lista następników</c:v>
+            <c:v>gęstość 0,4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1036,39 +1045,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wyniki!$C$4:$L$4</c:f>
+              <c:f>wyniki!$C$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6870546340942299E-2</c:v>
+                  <c:v>7984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2905635833740199E-2</c:v>
+                  <c:v>32472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17442893981933E-2</c:v>
+                  <c:v>72675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4978885650634699E-2</c:v>
+                  <c:v>129888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6982288360595595E-2</c:v>
+                  <c:v>202362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17420105934142999</c:v>
+                  <c:v>291172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22129659652709899</c:v>
+                  <c:v>397051</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31841735839843699</c:v>
+                  <c:v>519257</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.439562129974365</c:v>
+                  <c:v>658566</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59999041557312005</c:v>
+                  <c:v>810741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,121 +1085,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-66BA-4CC3-8836-4231F0E7AAC6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>macierz sąsiedztwa</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>wyniki!$C$1:$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>wyniki!$C$6:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.8004703521728501E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8274831771850499E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5669612884521397E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3216018676757801E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.111213731765747</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14117627143859801</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22738890647888099</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26764087677001902</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.31741814613342201</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.39296298027038501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-66BA-4CC3-8836-4231F0E7AAC6}"/>
+              <c16:uniqueId val="{00000001-9002-438A-A2CB-14472A546976}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1204,11 +1099,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488469168"/>
-        <c:axId val="2089097376"/>
+        <c:axId val="1888164303"/>
+        <c:axId val="1888175823"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="488469168"/>
+        <c:axId val="1888164303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1130,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>liczba wierzchołków</a:t>
+                  <a:t>Liczba wierzchołków</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1306,7 +1201,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089097376"/>
+        <c:crossAx val="1888175823"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1314,7 +1209,750 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089097376"/>
+        <c:axId val="1888175823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba łuków powrotnych</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1660649819494584E-2"/>
+              <c:y val="0.28976045942478967"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888164303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność czasu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> zliczania łuków powrotnych od liczby wierzchołków dla różnych sposobu reprezentacji grafu przy gęstości grafu d = 0,2</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lista następników</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>wyniki!$C$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wyniki!$C$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.6870546340942299E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2905635833740199E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17442893981933E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4978885650634699E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6982288360595595E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17420105934142999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22129659652709899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31841735839843699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.439562129974365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59999041557312005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38DA-45EC-B3C0-D4015A77CD43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Lista łuków</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>wyniki!$C$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wyniki!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.05338096618651E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.54023647308349E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1080274581909099E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4962911605834894E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5006513595581002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19171743392944299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25432448387145901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36110167503356899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50117354393005298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68638854026794405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38DA-45EC-B3C0-D4015A77CD43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Macierz sąsiedztwa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>wyniki!$C$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wyniki!$C$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.8004703521728501E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8274831771850499E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5669612884521397E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3216018676757801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.111213731765747</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14117627143859801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22738890647888099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26764087677001902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31741814613342201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39296298027038501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38DA-45EC-B3C0-D4015A77CD43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="150599231"/>
+        <c:axId val="150596351"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="150599231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba wierzchołków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="150596351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="150596351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,7 +2058,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488469168"/>
+        <c:crossAx val="150599231"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1432,6 +2070,771 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność czasu zliczania łuków powrotnych od liczby wierzchołków dla</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> różnych sposobów reprezentacji grafu przy gęstości grafu d = 0,4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lista następników</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>wyniki!$C$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wyniki!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.62232952117919904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61059575080871498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65755872726440401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72013263702392505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76546769142150795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89385561943054204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.01711921691894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.20930247306823</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4862285137176501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.75255970954895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0304-4B9D-BC11-C3ADE0E09A05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Lista łuków</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>wyniki!$C$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wyniki!$C$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.68040161132812504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71975450515746997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77960352897644003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75299768447875903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84607081413269003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98638062477111799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1392992019653301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3462954044341999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6235085010528501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9389358043670599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0304-4B9D-BC11-C3ADE0E09A05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Macierz sąsiedztwa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>wyniki!$C$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wyniki!$C$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.8916893005370999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4307498931884699E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9776124954223601E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5530080795288005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.141648817062377</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22180418968200599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26980357170104902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34332709312438903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45454792976379299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53781251907348604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0304-4B9D-BC11-C3ADE0E09A05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="812868223"/>
+        <c:axId val="812872543"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="812868223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba wierzchołków</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="812872543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="812872543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas w sekundach</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="812868223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1556,6 +2959,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2562,20 +4045,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2602,23 +5091,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2">
+        <xdr:cNvPr id="4" name="Wykres 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160F4677-E3F4-DB3D-DF55-76D877C525A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78AA1AD-216E-4728-E44E-D605CB91D65F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,7 +5125,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50A24DE-A46D-F6C2-541C-D513D829C7A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F835EB3F-31E5-BE66-DB87-B0F46A638798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2946,8 +5511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA80961-ED32-42C8-AA45-600B1EFF91F7}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,196 +5569,196 @@
       <c r="A2" s="2">
         <v>0.2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1.2816476821899399E-2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>2.1103429794311498E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>1.62818908691406E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>4.3163347244262601E-2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>5.7052421569824201E-2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>9.0219306945800701E-2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>0.135031509399414</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>0.19341926574707</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>0.25569992065429598</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>0.338161993026733</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
-        <v>4227</v>
-      </c>
-      <c r="D3" s="3">
-        <v>20947</v>
-      </c>
-      <c r="E3" s="3">
-        <v>58393</v>
-      </c>
-      <c r="F3" s="3">
-        <v>124584</v>
-      </c>
-      <c r="G3" s="3">
-        <v>227662</v>
-      </c>
-      <c r="H3" s="3">
-        <v>377645</v>
-      </c>
-      <c r="I3" s="3">
-        <v>581122</v>
-      </c>
-      <c r="J3" s="3">
-        <v>846470</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1183479</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1598883</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="C3" s="3">
+        <v>4166</v>
+      </c>
+      <c r="D3" s="1">
+        <v>16472</v>
+      </c>
+      <c r="E3" s="1">
+        <v>37274</v>
+      </c>
+      <c r="F3" s="1">
+        <v>66419</v>
+      </c>
+      <c r="G3" s="1">
+        <v>104206</v>
+      </c>
+      <c r="H3" s="1">
+        <v>149298</v>
+      </c>
+      <c r="I3" s="1">
+        <v>203227</v>
+      </c>
+      <c r="J3" s="1">
+        <v>265782</v>
+      </c>
+      <c r="K3" s="1">
+        <v>336821</v>
+      </c>
+      <c r="L3" s="1">
+        <v>414857</v>
+      </c>
+      <c r="M3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>1.6870546340942299E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>2.2905635833740199E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>3.17442893981933E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>6.4978885650634699E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>9.6982288360595595E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>0.17420105934142999</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>0.22129659652709899</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>0.31841735839843699</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>0.439562129974365</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>0.59999041557312005</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>1.05338096618651E-3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>1.54023647308349E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>5.1080274581909099E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>6.4962911605834894E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>9.5006513595581002E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>0.19171743392944299</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>0.25432448387145901</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>0.36110167503356899</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>0.50117354393005298</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>0.68638854026794405</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>1.8004703521728501E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>1.8274831771850499E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>3.5669612884521397E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>6.3216018676757801E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>0.111213731765747</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>0.14117627143859801</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>0.22738890647888099</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>0.26764087677001902</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>0.31741814613342201</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>0.39296298027038501</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3201,196 +5766,196 @@
       <c r="A7" s="2">
         <v>0.4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>0.34484343528747502</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>0.35406975746154701</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>0.364230918884277</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>0.39207630157470702</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>0.41858367919921802</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>0.467693853378295</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>0.54189329147338805</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>0.66377191543579095</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>0.74745755195617603</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>0.89096980094909595</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
-        <v>1606996</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1639556</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1712413</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1842096</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2044557</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2336389</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2733857</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3252586</v>
-      </c>
-      <c r="K8" s="1">
-        <v>3910090</v>
-      </c>
-      <c r="L8" s="1">
-        <v>4722043</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="C8">
+        <v>7984</v>
+      </c>
+      <c r="D8">
+        <v>32472</v>
+      </c>
+      <c r="E8">
+        <v>72675</v>
+      </c>
+      <c r="F8">
+        <v>129888</v>
+      </c>
+      <c r="G8">
+        <v>202362</v>
+      </c>
+      <c r="H8">
+        <v>291172</v>
+      </c>
+      <c r="I8">
+        <v>397051</v>
+      </c>
+      <c r="J8">
+        <v>519257</v>
+      </c>
+      <c r="K8">
+        <v>658566</v>
+      </c>
+      <c r="L8">
+        <v>810741</v>
+      </c>
+      <c r="M8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>0.62232952117919904</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>0.61059575080871498</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>0.65755872726440401</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>0.72013263702392505</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>0.76546769142150795</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>0.89385561943054204</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>1.01711921691894</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>1.20930247306823</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>1.4862285137176501</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>1.75255970954895</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>0.68040161132812504</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>0.71975450515746997</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>0.77960352897644003</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>0.75299768447875903</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>0.84607081413269003</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>0.98638062477111799</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>1.1392992019653301</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>1.3462954044341999</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <v>1.6235085010528501</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
         <v>1.9389358043670599</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>1.8916893005370999E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>6.4307498931884699E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>4.9776124954223601E-2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>9.5530080795288005E-2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>0.141648817062377</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>0.22180418968200599</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>0.26980357170104902</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>0.34332709312438903</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <v>0.45454792976379299</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11">
         <v>0.53781251907348604</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3400,9 +5965,10 @@
     <mergeCell ref="A7:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
